--- a/data/trans_orig/P14A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7AA0FA-DD22-470E-824B-11DADE9EDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C4B522C-71D9-4191-AC8E-7D72FD0AEF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0181A67B-12B4-48F9-9F5C-655D468DCFA9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90874C6F-2B4E-43EB-ACD7-16D90EA8A908}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>6,82%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>81,38%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,16 +195,16 @@
     <t>84,8%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>64,77%</t>
+    <t>66,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -213,19 +213,19 @@
     <t>87,8%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -234,70 +234,70 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,23%</t>
+    <t>33,71%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,217 +309,217 @@
     <t>94,82%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>53,83%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>46,17%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>42,9%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6C826-3259-4A61-B412-61917F4DB95F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164E41E9-1511-4BB9-997D-068CD946898B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEBDFB-569B-48E0-95A1-FA68ABDBCD1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24219458-ABFA-4606-B813-08675891FD78}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C4B522C-71D9-4191-AC8E-7D72FD0AEF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B5ACD6-BCC3-42C0-BC84-9DEADF6C4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90874C6F-2B4E-43EB-ACD7-16D90EA8A908}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{098EA2EC-276B-4564-8651-54948E1636A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,451 +75,451 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por colesterol alto en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por colesterol alto en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>12,38%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>53,83%</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>46,17%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>42,9%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164E41E9-1511-4BB9-997D-068CD946898B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4617500-1466-43E0-AF94-9BA8C8165B96}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24219458-ABFA-4606-B813-08675891FD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4F6D10-22C1-4A61-B348-4ACB13D4A654}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
